--- a/Protocol_Test/Test.xlsx
+++ b/Protocol_Test/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\98490\Desktop\TD11\H723_VibrationSensor\Protocol_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31750A7-BF12-4ED2-A7FB-98729ECAD7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3689DD9A-7303-46C2-845A-C1E5F953704D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23138" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>00 02 00 00 00 00 00</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00 77 05 00 00 00 00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00 77 06 00 00 00 00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>温度结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据包完整性测试 00 11 22 （Hex返回）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">00 02 48 C1 CD 4D F4 41 CD 4D FC 3C 78 D0 00 40 3A 7D 4C C1 CB 32 9D 41 CB 32 9C 3C 82 F8 00 40 26 18 BF C2 58 55 79 3C 03 43 A2 3D 32 C4 00 40 23 85 CA 41 C7 FE D2 3C 12 53 F5 39 04 68 24 42 58 55 79 3D 32 C8 00 00 00 00 00 3B E6 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00 42 xx xx xx xx xx xx xx xx xx xx xx xx 01 crc(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,14 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">配置波形点数00 00 04 C8 00 10 00 D9 60 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00 00 02 10 00 /00 00 02 04 00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">00 00 01 C8 00 /00 00 01 64 00 /00 00 01 32 00 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">00 60 00 59 C0 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CMD_WAVE 波形更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,11 +139,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">00 04 FF 00 40 C2 55 B8 F2 C2 55 B3 CA C2 55 AE A2 C2 55 A9 79 C2 55 B0 5A C2 55 AC EA C2 55 B2 11 C2 55 B2 11 C2 55 AE A2 C2 55 B8 F2 C2 55 A9 79 C2 55 B2 11 C2 55 B7 3A C2 55 B0 5A C2 55 AE A2 C2 55 AB 32 C2 55 A7 C2 C2 55 B8 F2 C2 55 B7 3A C2 55 B5 82 C2 55 AE A2 C2 55 B8 F2 C2 55 B0 5A C2 55 B2 11 C2 55 B8 F2 C2 55 B0 5A C2 55 B3 CA C2 55 B3 CA C2 55 A9 79 C2 55 B2 11 C2 55 B2 11 C2 55 B0 5A C2 55 AE A2 C2 55 AC EA C2 55 AB 32 C2 55 C3 41 C2 55 B5 82 C2 55 AC EA C2 55 B2 11 C2 55 B5 82 C2 55 B3 CA C2 55 B5 82 C2 55 B7 3A C2 55 B7 3A C2 55 AC EA C2 55 AC EA C2 55 B0 5A C2 55 B3 CA C2 55 AE A2 C2 55 B3 CA C2 55 B0 5A C2 55 B3 CA C2 55 B3 CA C2 55 BA A9 C2 55 B0 5A C2 55 AE A2 C2 55 B8 F2 C2 55 B7 3A C2 55 B5 82 C2 55 AC EA C2 55 B0 5A C2 55 B2 11 C2 55 B2 11 C2 55 B2 11 51 37 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">00 04 02 4F 4B F0 F7 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">00 02 48 C1 C4 0F 51 41 C4 0F A3 3C AA 40 00 40 40 6E 18 C1 C2 C2 77 41 C2 C2 2B 3C AA 3C 00 40 52 C8 BA C2 4C 26 BD 42 4C 27 21 3D 47 60 00 40 4B 7D 33 41 C7 FC B8 3B 93 10 D9 39 4E 56 E6 3C 4C 27 21 3C 4C 3E 08 00 00 00 00 05 BF </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">00 04 00 40 C2 4C 00 28 C2 4B FB 00 C2 4B F7 90 C2 4B F5 D8 C2 4B F4 20 C2 4C 01 E0 C2 4B F7 90 C2 4B FB 00 C2 4B F5 D8 C2 4B F7 90 C2 4C 07 08 C2 4B FB 00 C2 4B F9 48 C2 4B F5 D8 C2 4B F7 90 C2 4B FE 70 C2 4B F5 D8 C2 4B F5 D8 C2 4B FE 70 C2 4B FC B8 C2 4B FB 00 C2 4B E9 D0 C2 4B F7 90 C2 4C 03 98 C2 4B F7 90 C2 4B F7 90 C2 4C 00 28 C2 4B FC B8 C2 4B FB 00 C2 4B F7 90 C2 4C 00 28 C2 4B FB 00 C2 4C 00 28 C2 4B FE 70 C2 4B FC B8 C2 4B F9 48 C2 4C 07 08 C2 4B F9 48 C2 4C 00 28 C2 4B FB 00 C2 4B FB 00 C2 4B F5 D8 C2 4B F0 B0 C2 4B FE 70 C2 4B E9 D0 C2 4C 0C 30 C2 4B FB 00 C2 4B FB 00 C2 4B FB 00 C2 4B FE 70 C2 4B FE 70 C2 4C 07 08 C2 4B FE 70 C2 4C 00 28 C2 4B FE 70 C2 4B FE 70 C2 4B FB 00 C2 4B F9 48 C2 4B F9 48 C2 4C 01 E0 C2 4B FB 00 C2 4B FE 70 C2 4B FE 70 C2 4C 07 08 6D B1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">00 60 02 4F 4B EF C7 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,22 +219,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1617228</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6079987</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>2718338</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094B1D87-BC50-DBD9-352E-0B8D0610A311}"/>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>401706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9399546</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1523801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA113058-33DA-45AE-F532-18A405204549}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -260,270 +244,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10913628" y="0"/>
-          <a:ext cx="4462759" cy="2718338"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>36646</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6251914</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>2847975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78F80650-BB0A-FE6F-DA22-0A04083E0CF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10820400" y="3446596"/>
-          <a:ext cx="4727914" cy="2811329"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>166419</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6265235</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2980006</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC272B9F-C65D-12A1-521E-CCF6B9B373D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10829925" y="6576744"/>
-          <a:ext cx="4731710" cy="2813587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1562100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>92555</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6292100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2905124</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A8B569-2313-361D-5BD6-DE5ACCD2D82F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10858500" y="9531830"/>
-          <a:ext cx="4730000" cy="2812569"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>170683</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>7618401</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>2123614</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA705890-1FCE-2624-8A1D-F384849CAE1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10125075" y="12581758"/>
-          <a:ext cx="6789726" cy="1952931"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>227059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6647271</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1333280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8E36B7-E0B3-F609-201D-67736BE74B76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9991725" y="14809834"/>
-          <a:ext cx="5951946" cy="1106221"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>401706</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9399546</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1523801</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA113058-33DA-45AE-F532-18A405204549}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -543,103 +263,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>261698</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9095187</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2000013</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BCBB1A-73F9-E687-900D-D4EF598671ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9629775" y="18111548"/>
-          <a:ext cx="8761812" cy="1738315"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>65668</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>8580853</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1447581</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F4C9388-A5BB-E384-9552-8125E29832BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10487025" y="20201518"/>
-          <a:ext cx="7390228" cy="1381913"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>1152524</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>30449</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>6647577</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1561857</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14212</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -655,7 +287,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -664,94 +296,6 @@
         <a:xfrm>
           <a:off x="10448924" y="22814249"/>
           <a:ext cx="5495053" cy="1531408"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1619250</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142512</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6399926</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1666596</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892155BF-7B37-7453-B4EC-1E0723BFB46C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10915650" y="21735687"/>
-          <a:ext cx="4780676" cy="1524084"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1057275</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>83030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6418983</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1276157</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EAA263D-800C-0369-6557-45D7544011E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10353675" y="25057580"/>
-          <a:ext cx="5361708" cy="1193127"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -787,7 +331,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -831,7 +375,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -875,7 +419,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -884,6 +428,402 @@
         <a:xfrm>
           <a:off x="25475045" y="3792682"/>
           <a:ext cx="10476190" cy="5219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>427406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6678470</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2278815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92653820-ED4F-3A93-6EE5-6E6132A52F1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9769929" y="427406"/>
+          <a:ext cx="6202220" cy="1851409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1941978</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>408214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5349059</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2875631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30EB78F-C57C-3410-2E80-45A2A2C47026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11235657" y="5551714"/>
+          <a:ext cx="3407081" cy="2467417"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1547879</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>20410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6027964</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>20348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79EC70C0-1F17-ACB7-A199-3668AD7331F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10841558" y="8164286"/>
+          <a:ext cx="4480085" cy="3027526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1462396</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>20412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5736851</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2912422</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9DB1EF7-8D77-04AE-E380-329D784757D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10756075" y="11191876"/>
+          <a:ext cx="4274455" cy="2892010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1517196</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2926014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6453054</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>337037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC4802B-C83C-B1F0-4080-0A9207AA7EDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10810875" y="14097478"/>
+          <a:ext cx="4935858" cy="2554523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1347107</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>353785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7728059</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2010928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD1D733-4081-B8EE-2709-90AA0839FD13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10640786" y="18526125"/>
+          <a:ext cx="6380952" cy="1657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1700893</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2211161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8481845</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1334685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C14A39-973C-BF6A-382F-A5445B10B0F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10994572" y="20383501"/>
+          <a:ext cx="6780952" cy="1409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>959304</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6292637</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2C133E-ABE8-FC1F-F721-3E657999BE5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10252983" y="22002751"/>
+          <a:ext cx="5333333" cy="1733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1204232</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5985184</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C36EE1F4-8C90-2303-88C8-5DDCF7BB65EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10497911" y="25363715"/>
+          <a:ext cx="4780952" cy="1752381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1158,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1174,46 +1114,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="219.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="236.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="238.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1221,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="234" customHeight="1" x14ac:dyDescent="0.2">
@@ -1229,7 +1169,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="171" customHeight="1" x14ac:dyDescent="0.2">
@@ -1237,26 +1177,29 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1264,48 +1207,29 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
